--- a/opl/hello-cplex/5_data.xlsx
+++ b/opl/hello-cplex/5_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mars\opl\hello-cplex\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mars\Desktop\optim\opl\hello-cplex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C123994D-FDD4-43C8-A8EA-19144BB7FBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91685518-96D7-4776-8CFC-55B27E7D8D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3540" windowWidth="16404" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3096" yWindow="1920" windowWidth="16404" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
